--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/Compare.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\adversary_power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911268C-1160-4C52-A59D-96B4C716AC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7B0FB-254D-4253-B27B-1D44B101F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,103 +397,100 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.64178999999999997</v>
+        <v>0.49991999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>0.87310500000000002</v>
+        <v>0.92767500000000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.576735</v>
+        <v>0.67825500000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>0.73898333333333299</v>
+        <v>0.78215999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.63480999999999999</v>
+        <v>0.61587000000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.76793</v>
+        <v>0.74150000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.65251999999999999</v>
+        <v>0.66210999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>0.78371500000000005</v>
+        <v>0.70327499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.69541500000000001</v>
+        <v>0.57220499999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>0.81073499999999998</v>
+        <v>0.66940999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.75828499999999999</v>
+        <v>0.62256500000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>0.86183500000000002</v>
+        <v>0.61243999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.80357500000000004</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.92525500000000005</v>
+        <v>0.70432499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.86821000000000004</v>
+        <v>0.43393999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.93147000000000002</v>
+        <v>0.50608999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="1">
-        <v>0.99648000000000003</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,16 +502,25 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="B13" s="1">
         <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="B14" s="1">
         <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="B15" s="1">
         <v>1.25</v>
       </c>

--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/Compare.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/Compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\adversary_power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7B0FB-254D-4253-B27B-1D44B101F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656F00C4-70B2-40B3-9E31-8A19323B36C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,13 +378,13 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="17.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
@@ -403,10 +403,10 @@
         <v>0.49991999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>0.92767500000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91615000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -414,10 +414,10 @@
         <v>0.67825500000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>0.78215999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.85322500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
@@ -425,10 +425,10 @@
         <v>0.61587000000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.74150000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.69848500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -436,10 +436,10 @@
         <v>0.66210999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>0.70327499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.76512500000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
@@ -447,10 +447,10 @@
         <v>0.57220499999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>0.66940999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.72238999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -458,10 +458,10 @@
         <v>0.62256500000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>0.61243999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55895499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
@@ -469,7 +469,7 @@
         <v>0.70432499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0.43393999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0.50608999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.5</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.5</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
